--- a/xlsx/九一一事件_intext.xlsx
+++ b/xlsx/九一一事件_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="465">
   <si>
     <t>九一一事件</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>世界貿易中心</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_九一一事件</t>
+    <t>世界贸易中心</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_九一一事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>五角大樓</t>
+    <t>五角大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
   </si>
   <si>
-    <t>曼哈頓</t>
+    <t>曼哈顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -89,19 +89,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國防部</t>
+    <t>美国国防部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%AB%E6%A9%9F</t>
   </si>
   <si>
-    <t>劫機</t>
+    <t>劫机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%AE%BA%E6%94%BB%E6%93%8A</t>
   </si>
   <si>
-    <t>自殺攻擊</t>
+    <t>自杀攻击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9C%B0%E7%BB%84%E7%BB%87</t>
@@ -149,27 +149,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
   </si>
   <si>
-    <t>纽约</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>世界贸易中心</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9D%88%E9%A0%93%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿靈頓縣</t>
+    <t>阿灵顿县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E5%A4%A7%E6%A5%BC</t>
   </si>
   <si>
-    <t>五角大楼</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%89%B9%E5%8C%BA</t>
   </si>
   <si>
@@ -179,13 +170,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%BE%8E%E5%A1%9E%E7%89%B9%E7%B8%A3_(%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>索美塞特縣 (賓夕法尼亞州)</t>
+    <t>索美塞特县 (宾夕法尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%96%A9%E7%91%AA%C2%B7%E8%B3%93%E6%8B%89%E7%99%BB</t>
   </si>
   <si>
-    <t>奧薩瑪·賓拉登</t>
+    <t>奥萨玛·宾拉登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BC%E5%90%B8%E7%B3%BB%E7%BB%9F%E7%96%BE%E7%97%85</t>
@@ -215,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%84%9B%E5%9C%8B%E8%80%85%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國愛國者法案</t>
+    <t>美国爱国者法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90</t>
@@ -251,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E4%B8%80%E6%9C%9F</t>
   </si>
   <si>
-    <t>世界貿易中心一期</t>
+    <t>世界贸易中心一期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B0%BA</t>
@@ -269,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E4%B8%80%E8%99%9F%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>世界貿易中心一號大樓</t>
+    <t>世界贸易中心一号大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -383,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA77%E8%99%9F%E7%8F%AD%E6%A9%9F</t>
   </si>
   <si>
-    <t>美國航空77號班機</t>
+    <t>美国航空77号班机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E8%88%AA%E7%A9%BA93%E5%8F%B7%E7%8F%AD%E6%9C%BA</t>
@@ -425,19 +416,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E6%A4%92%E5%99%B4%E9%9C%A7</t>
   </si>
   <si>
-    <t>胡椒噴霧</t>
+    <t>胡椒喷雾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%AC%E6%B7%9A%E7%93%A6%E6%96%AF</t>
   </si>
   <si>
-    <t>催淚瓦斯</t>
+    <t>催泪瓦斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%BE%A4%E6%9B%BC</t>
   </si>
   <si>
-    <t>萊澤曼</t>
+    <t>莱泽曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%8C%A3%E5%AD%90</t>
@@ -497,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E9%80%B1%E5%88%8A</t>
   </si>
   <si>
-    <t>新聞週刊</t>
+    <t>新闻周刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97</t>
@@ -509,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%A6%96%E7%9B%B8</t>
   </si>
   <si>
-    <t>英國首相</t>
+    <t>英国首相</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B0%BC%C2%B7%E5%B8%83%E8%8E%B1%E5%B0%94</t>
@@ -527,25 +518,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%C2%B7%E6%8B%89%E7%99%BB</t>
   </si>
   <si>
-    <t>賓·拉登</t>
+    <t>宾·拉登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>中央情報局</t>
+    <t>中央情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E5%B8%83%E7%88%BE</t>
   </si>
   <si>
-    <t>喀布爾</t>
+    <t>喀布尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>媒體</t>
+    <t>媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C%E5%9C%B0%E5%8C%BA</t>
@@ -581,13 +572,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%82%AD%E7%96%BD%E6%A1%BF%E8%8F%8C</t>
   </si>
   <si>
-    <t>炭疽桿菌</t>
+    <t>炭疽杆菌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%A8%99%E6%BA%96%E6%8A%80%E8%A1%93%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>國家標準技術研究所</t>
+    <t>国家标准技术研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
@@ -599,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%B4%8E%E5%AF%A6</t>
   </si>
   <si>
-    <t>山崎實</t>
+    <t>山崎实</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD%E5%A4%A7%E5%8E%A6</t>
@@ -623,21 +614,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA11%E8%99%9F%E7%8F%AD%E6%A9%9F</t>
   </si>
   <si>
-    <t>美國航空11號班機</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA175%E8%99%9F%E7%8F%AD%E6%A9%9F</t>
   </si>
   <si>
-    <t>聯合航空175號班機</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA93%E8%99%9F%E7%8F%AD%E6%A9%9F</t>
   </si>
   <si>
-    <t>聯合航空93號班機</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
   </si>
   <si>
@@ -695,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%AE%89%E5%85%A8%E4%BF%9D%E9%9A%9C%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>太平洋安全保障條約</t>
+    <t>太平洋安全保障条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -707,13 +689,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -725,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
@@ -767,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>錫安主義</t>
+    <t>锡安主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E8%AF%81%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
@@ -791,15 +773,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>約旦河西岸地區</t>
+    <t>约旦河西岸地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
-    <t>德国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
   </si>
   <si>
@@ -821,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%B7%B4%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>以巴衝突</t>
+    <t>以巴冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%9B%85%E6%98%8E%C2%B7%E5%86%85%E5%A1%94%E5%B0%BC%E4%BA%9A%E8%83%A1</t>
@@ -851,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%93%8B%E9%81%94%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>阿蓋達組織</t>
+    <t>阿盖达组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
@@ -899,15 +878,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%BE%BE%E5%A7%86%E6%94%BF%E6%9D%83</t>
   </si>
   <si>
@@ -953,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%9C%E9%8F%A1%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>稜鏡計畫</t>
+    <t>稜镜计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
@@ -965,19 +941,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E7%9C%BC%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>五眼聯盟</t>
+    <t>五眼联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%9B%A3%E6%8E%A7</t>
   </si>
   <si>
-    <t>全球監控</t>
+    <t>全球监控</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
+    <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%BD%AA%E6%8E%A8%E5%AE%9A%E5%8E%9F%E5%88%99</t>
@@ -989,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E7%88%BE%E8%A5%BF%C2%B7%E6%9B%BC%E5%AF%A7</t>
   </si>
   <si>
-    <t>切爾西·曼寧</t>
+    <t>切尔西·曼宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E8%A7%A3%E5%AF%86%E6%B3%84%E9%9C%B2%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E7%94%B5%E6%8A%A5%E4%BA%8B%E4%BB%B6</t>
@@ -1043,9 +1019,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E4%BD%93</t>
   </si>
   <si>
-    <t>媒体</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
   </si>
   <si>
@@ -1061,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B5%E4%BA%BA</t>
   </si>
   <si>
-    <t>敵人</t>
+    <t>敌人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -1085,19 +1058,19 @@
     <t>https://zh.wikipedia.org/wiki/9/11_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>9/11 (電影)</t>
+    <t>9/11 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%B2%BF%E4%B8%AD%E5%BF%83_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>世貿中心 (電影)</t>
+    <t>世贸中心 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E8%88%AA93</t>
   </si>
   <si>
-    <t>聯航93</t>
+    <t>联航93</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%86%E5%BC%B1%E7%9A%84%E5%8F%98%E5%8C%96</t>
@@ -1127,25 +1100,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E6%8B%89%E7%99%BB</t>
   </si>
   <si>
-    <t>賓拉登</t>
+    <t>宾拉登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%B1%B9%E5%85%AD%E9%9A%8A</t>
   </si>
   <si>
-    <t>海豹六隊</t>
+    <t>海豹六队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B0%E9%8B%BC%E7%B4%A2%E7%9A%84%E4%BA%BA</t>
   </si>
   <si>
-    <t>走鋼索的人</t>
+    <t>走钢索的人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E9%9D%88%E9%91%B0%E5%8C%99</t>
   </si>
   <si>
-    <t>心靈鑰匙</t>
+    <t>心灵钥匙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9A%86%E4%BC%AF%E6%A0%BC</t>
@@ -1157,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A5%E5%B7%B4%E9%A9%AC</t>
@@ -1181,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E8%BB%8A%E7%AB%99_(PATH)</t>
   </si>
   <si>
-    <t>世界貿易中心車站 (PATH)</t>
+    <t>世界贸易中心车站 (PATH)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%87%8C%C2%B7%E5%B8%8C%E5%B0%94%E5%BC%97%E6%96%AF%E5%9D%A6</t>
@@ -1193,19 +1166,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>九一一國家紀念博物館</t>
+    <t>九一一国家纪念博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E7%88%86%E9%BB%9E</t>
   </si>
   <si>
-    <t>原爆點</t>
+    <t>原爆点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA93%E8%99%9F%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E9%A4%A8</t>
   </si>
   <si>
-    <t>聯合航空93號國家紀念館</t>
+    <t>联合航空93号国家纪念馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1229,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%A2%E7%BB%8F%E6%97%B6%E6%8A%A5</t>
@@ -1259,25 +1232,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>國會圖書館 (美國)</t>
+    <t>国会图书馆 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>國家地理頻道</t>
+    <t>国家地理频道</t>
   </si>
   <si>
     <t>https://web.archive.org/web/20070206082335/http://sep11memories.org/wiki/In_Memoriam</t>
   </si>
   <si>
-    <t>九一一事件的wiki網站</t>
+    <t>九一一事件的wiki网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1993%E5%B9%B4%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E7%88%86%E7%82%B8%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>1993年世界貿易中心爆炸事件</t>
+    <t>1993年世界贸易中心爆炸事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%87%91%E5%8D%A1%E8%AE%A1%E5%88%92</t>
@@ -1289,31 +1262,28 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E9%99%B0%E8%AC%80%E8%AB%96</t>
   </si>
   <si>
-    <t>九一一陰謀論</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%B0%8D%E7%A8%B1%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>非對稱作戰</t>
+    <t>非对称作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A3%AE%E6%A9%9F%E5%A0%B4%E5%8A%AB%E6%A9%9F%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>道森機場劫機事件</t>
+    <t>道森机场劫机事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA77%E8%99%9F%E7%8F%AD%E6%A9%9F%E6%81%90%E6%80%96%E8%A5%B2%E6%93%8A</t>
   </si>
   <si>
-    <t>美國航空77號班機恐怖襲擊</t>
+    <t>美国航空77号班机恐怖袭击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E8%88%AA%E7%A9%BA85%E8%99%9F%E7%8F%AD%E6%A9%9F%E5%8A%AB%E6%A9%9F%E8%AA%A4%E5%A0%B1%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>大韓航空85號班機劫機誤報事件</t>
+    <t>大韩航空85号班机劫机误报事件</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stonycreek_Township,_Somerset_County,_Pennsylvania</t>
@@ -1325,21 +1295,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E7%AC%AC1368%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安全理事會第1368號決議</t>
+    <t>联合国安全理事会第1368号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E4%BA%8B%E4%BB%B6%E9%99%B0%E8%AC%80%E8%AB%96</t>
   </si>
   <si>
-    <t>九一一事件陰謀論</t>
+    <t>九一一事件阴谋论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%98%E4%BA%89_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗战争 (2001年)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E8%A5%BF%E5%8C%97%E9%83%A8%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -1349,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%B2%BF%E4%B8%AD%E5%BF%83%E4%B8%8A%E7%9A%84%E9%81%8A%E5%AE%A2</t>
   </si>
   <si>
-    <t>世貿中心上的遊客</t>
+    <t>世贸中心上的游客</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:2001%E5%B9%B4%E8%88%AA%E7%A9%BA%E4%BA%8B%E6%95%85</t>
@@ -1361,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/2001%E5%B9%B4%E6%97%A5%E6%9C%AC%E8%88%AA%E7%A9%BA%E7%8F%AD%E6%A9%9F%E7%A9%BA%E4%B8%AD%E6%8E%A5%E8%BF%91%E4%BA%8B%E6%95%85</t>
   </si>
   <si>
-    <t>2001年日本航空班機空中接近事故</t>
+    <t>2001年日本航空班机空中接近事故</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%92%9E%E6%9C%BA%E4%BA%8B%E4%BB%B6</t>
@@ -1373,31 +1340,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8F%83%E5%B4%B4%E8%88%AA%E7%A9%BA352%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>海參崴航空352號班機空難</t>
+    <t>海参崴航空352号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%B4%8B%E8%88%AA%E7%A9%BA236%E8%99%9F%E7%8F%AD%E6%A9%9F%E4%BA%8B%E6%95%85</t>
   </si>
   <si>
-    <t>越洋航空236號班機事故</t>
+    <t>越洋航空236号班机事故</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E8%88%AA%E7%A9%BA1812%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>西伯利亞航空1812號班機空難</t>
+    <t>西伯利亚航空1812号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90%E8%88%AA%E7%A9%BA686%E8%99%9F%E7%8F%AD%E6%A9%9F%E4%BA%8B%E6%95%85</t>
   </si>
   <si>
-    <t>北歐航空686號班機事故</t>
+    <t>北欧航空686号班机事故</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA587%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>美國航空587號班機空難</t>
+    <t>美国航空587号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E8%88%AA%E7%A9%BA3597%E5%8F%B7%E7%8F%AD%E6%9C%BA%E7%A9%BA%E9%9A%BE</t>
@@ -1415,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1433,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E8%A2%AD%E5%87%BB%E4%BA%8B%E4%BB%B6</t>
@@ -2451,7 +2418,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
         <v>21</v>
@@ -2477,10 +2444,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
         <v>10</v>
@@ -2506,10 +2473,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2535,10 +2502,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
         <v>12</v>
@@ -2564,10 +2531,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
@@ -2593,10 +2560,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2622,10 +2589,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -2651,10 +2618,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2680,10 +2647,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -2709,10 +2676,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G32" t="n">
         <v>13</v>
@@ -2738,10 +2705,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G33" t="n">
         <v>8</v>
@@ -2767,10 +2734,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2796,10 +2763,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -2825,10 +2792,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -2854,10 +2821,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2883,10 +2850,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2912,10 +2879,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2941,10 +2908,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2970,10 +2937,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2999,10 +2966,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -3028,10 +2995,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -3057,10 +3024,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3086,10 +3053,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -3115,10 +3082,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3144,10 +3111,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3173,10 +3140,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3202,10 +3169,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3231,10 +3198,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3260,10 +3227,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3289,10 +3256,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3347,10 +3314,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3376,10 +3343,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3405,10 +3372,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3434,10 +3401,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3463,10 +3430,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3492,10 +3459,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3521,10 +3488,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3550,10 +3517,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3579,10 +3546,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3608,10 +3575,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3637,10 +3604,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -3666,10 +3633,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3695,10 +3662,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3724,10 +3691,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -3753,10 +3720,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3782,10 +3749,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3811,10 +3778,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3840,10 +3807,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3869,10 +3836,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3898,10 +3865,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3927,10 +3894,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3956,10 +3923,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3985,10 +3952,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4014,10 +3981,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -4043,10 +4010,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4072,10 +4039,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4101,10 +4068,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4130,10 +4097,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4159,10 +4126,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4188,10 +4155,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -4246,10 +4213,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4275,10 +4242,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4304,10 +4271,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G87" t="n">
         <v>6</v>
@@ -4333,10 +4300,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4362,10 +4329,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4391,10 +4358,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4420,10 +4387,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>6</v>
@@ -4449,10 +4416,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4478,10 +4445,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4507,10 +4474,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4536,10 +4503,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4565,10 +4532,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4594,10 +4561,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4623,10 +4590,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4652,10 +4619,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>8</v>
@@ -4681,10 +4648,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4710,10 +4677,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4739,10 +4706,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4768,10 +4735,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4797,10 +4764,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F104" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4826,10 +4793,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="G105" t="n">
         <v>14</v>
@@ -4855,10 +4822,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4884,10 +4851,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4913,10 +4880,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4942,10 +4909,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4971,10 +4938,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G110" t="n">
         <v>9</v>
@@ -5000,10 +4967,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5029,10 +4996,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5058,10 +5025,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5087,10 +5054,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5116,10 +5083,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -5145,10 +5112,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5174,10 +5141,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5203,10 +5170,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G118" t="n">
         <v>7</v>
@@ -5232,10 +5199,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5261,10 +5228,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5290,10 +5257,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5319,10 +5286,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5348,10 +5315,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G123" t="n">
         <v>8</v>
@@ -5377,10 +5344,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G124" t="n">
         <v>5</v>
@@ -5406,10 +5373,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5435,10 +5402,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5464,10 +5431,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5493,10 +5460,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5522,10 +5489,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5551,10 +5518,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5580,10 +5547,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5609,10 +5576,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5638,10 +5605,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5667,10 +5634,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5696,10 +5663,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5725,10 +5692,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -5754,10 +5721,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5783,10 +5750,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G138" t="n">
         <v>4</v>
@@ -5812,10 +5779,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5841,10 +5808,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5870,10 +5837,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5899,10 +5866,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -5928,10 +5895,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G143" t="n">
         <v>7</v>
@@ -5957,10 +5924,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5986,10 +5953,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6015,10 +5982,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6044,10 +6011,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6073,10 +6040,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6102,10 +6069,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6131,10 +6098,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G150" t="n">
         <v>8</v>
@@ -6160,10 +6127,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6189,10 +6156,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6218,10 +6185,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G153" t="n">
         <v>7</v>
@@ -6247,10 +6214,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6276,10 +6243,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6305,10 +6272,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6334,10 +6301,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G157" t="n">
         <v>5</v>
@@ -6363,10 +6330,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6392,10 +6359,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F159" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6421,10 +6388,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6450,10 +6417,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6479,10 +6446,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6508,10 +6475,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -6537,10 +6504,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6566,10 +6533,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6595,10 +6562,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6624,10 +6591,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6653,10 +6620,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6682,10 +6649,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6711,10 +6678,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6740,10 +6707,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6769,10 +6736,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6798,10 +6765,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F173" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6827,10 +6794,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6856,10 +6823,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F175" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6885,10 +6852,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F176" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6914,10 +6881,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F177" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6943,10 +6910,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -6972,10 +6939,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7001,10 +6968,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>173</v>
       </c>
       <c r="G180" t="n">
         <v>9</v>
@@ -7030,10 +6997,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F181" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G181" t="n">
         <v>9</v>
@@ -7059,10 +7026,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7088,10 +7055,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7117,10 +7084,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G184" t="n">
         <v>25</v>
@@ -7146,10 +7113,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -7175,10 +7142,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G186" t="n">
         <v>16</v>
@@ -7204,10 +7171,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G187" t="n">
         <v>26</v>
@@ -7233,10 +7200,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G188" t="n">
         <v>10</v>
@@ -7262,10 +7229,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7291,10 +7258,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7320,10 +7287,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7349,10 +7316,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7378,10 +7345,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7407,10 +7374,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -7436,10 +7403,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7465,10 +7432,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7494,10 +7461,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7523,10 +7490,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7552,10 +7519,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7581,10 +7548,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -7610,10 +7577,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7639,10 +7606,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -7668,10 +7635,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7697,10 +7664,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7726,10 +7693,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -7755,10 +7722,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7784,10 +7751,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7813,10 +7780,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F208" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7842,10 +7809,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -7871,10 +7838,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7900,10 +7867,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7929,10 +7896,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -7958,10 +7925,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7987,10 +7954,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G214" t="n">
         <v>3</v>
@@ -8016,10 +7983,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8045,10 +8012,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8074,10 +8041,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8103,10 +8070,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8132,10 +8099,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8161,10 +8128,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8190,10 +8157,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F221" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8219,10 +8186,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F222" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8248,10 +8215,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F223" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -8277,10 +8244,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F224" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -8306,10 +8273,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F225" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8335,10 +8302,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F226" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -8364,10 +8331,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F227" t="s">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8393,10 +8360,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F228" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8422,10 +8389,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F229" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8451,10 +8418,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F230" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G230" t="n">
         <v>6</v>
@@ -8480,10 +8447,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F231" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -8509,10 +8476,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F232" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8538,10 +8505,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F233" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8567,10 +8534,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F234" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8596,10 +8563,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F235" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -8625,10 +8592,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F236" t="s">
-        <v>440</v>
+        <v>312</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8654,10 +8621,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="F237" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8683,10 +8650,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F238" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8712,10 +8679,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F239" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8741,10 +8708,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="F240" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8770,10 +8737,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F241" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8799,10 +8766,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="F242" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="G242" t="n">
         <v>9</v>
@@ -8828,10 +8795,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="F243" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8857,10 +8824,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F244" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8886,10 +8853,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="F245" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8915,10 +8882,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="F246" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8944,10 +8911,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F247" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -8973,10 +8940,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F248" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9002,10 +8969,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F249" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9031,10 +8998,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F250" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9060,10 +9027,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F251" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9089,10 +9056,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F252" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9118,10 +9085,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F253" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -9147,10 +9114,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="F254" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9176,10 +9143,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="F255" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9205,10 +9172,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="F256" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9234,10 +9201,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F257" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G257" t="n">
         <v>21</v>
@@ -9263,10 +9230,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F258" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="G258" t="n">
         <v>4</v>
